--- a/qa testing look.inc.xlsx
+++ b/qa testing look.inc.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="121">
   <si>
     <t>TC_01</t>
   </si>
@@ -384,6 +384,9 @@
   </si>
   <si>
     <t xml:space="preserve">Test Cases </t>
+  </si>
+  <si>
+    <t>TC_10</t>
   </si>
 </sst>
 </file>
@@ -733,8 +736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1140,6 +1143,9 @@
       <c r="H41" t="s">
         <v>90</v>
       </c>
+      <c r="I41" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D42" t="s">
@@ -1206,7 +1212,7 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="B50" t="s">
         <v>99</v>
